--- a/labelled_csv_files/labelled_M_0078_16y5m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0078_16y5m_1_fa.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9087DFC-8325-B045-8BAE-CCC366B93239}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BFABCD5A-03D8-184C-8ADB-C85843A68258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="980" windowWidth="17760" windowHeight="15000"/>
+    <workbookView xWindow="320" yWindow="680" windowWidth="17760" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0078_16y5m_1_fa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1350,7 +1358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2193,11 +2201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B172" zoomScale="167" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5390,7 +5398,7 @@
         <v>86.37</v>
       </c>
       <c r="D160">
-        <v>86.385000000000005</v>
+        <v>88.784999999999997</v>
       </c>
       <c r="E160" t="s">
         <v>286</v>
@@ -5407,10 +5415,11 @@
         <v>287</v>
       </c>
       <c r="C161">
-        <v>86.385000000000005</v>
+        <f>D160</f>
+        <v>88.784999999999997</v>
       </c>
       <c r="D161">
-        <v>86.47</v>
+        <v>89.17</v>
       </c>
       <c r="E161" t="s">
         <v>225</v>
@@ -5427,10 +5436,11 @@
         <v>288</v>
       </c>
       <c r="C162">
-        <v>86.47</v>
+        <f t="shared" ref="C162:C178" si="0">D161</f>
+        <v>89.17</v>
       </c>
       <c r="D162">
-        <v>86.605000000000004</v>
+        <v>89.605000000000004</v>
       </c>
       <c r="E162" t="s">
         <v>122</v>
@@ -5447,10 +5457,11 @@
         <v>289</v>
       </c>
       <c r="C163">
-        <v>86.605000000000004</v>
+        <f t="shared" si="0"/>
+        <v>89.605000000000004</v>
       </c>
       <c r="D163">
-        <v>87.77</v>
+        <v>90.05</v>
       </c>
       <c r="E163" t="s">
         <v>107</v>
@@ -5467,10 +5478,11 @@
         <v>290</v>
       </c>
       <c r="C164">
-        <v>87.77</v>
+        <f t="shared" si="0"/>
+        <v>90.05</v>
       </c>
       <c r="D164">
-        <v>88.045000000000002</v>
+        <v>90.56</v>
       </c>
       <c r="E164" t="s">
         <v>291</v>
@@ -5487,10 +5499,11 @@
         <v>292</v>
       </c>
       <c r="C165">
-        <v>88.045000000000002</v>
+        <f t="shared" si="0"/>
+        <v>90.56</v>
       </c>
       <c r="D165">
-        <v>88.194999999999993</v>
+        <v>90.795000000000002</v>
       </c>
       <c r="E165" t="s">
         <v>50</v>
@@ -5507,10 +5520,11 @@
         <v>293</v>
       </c>
       <c r="C166">
-        <v>88.194999999999993</v>
+        <f t="shared" si="0"/>
+        <v>90.795000000000002</v>
       </c>
       <c r="D166">
-        <v>89.31</v>
+        <v>91.015000000000001</v>
       </c>
       <c r="E166" t="s">
         <v>294</v>
@@ -5527,10 +5541,11 @@
         <v>295</v>
       </c>
       <c r="C167">
-        <v>89.31</v>
+        <f t="shared" si="0"/>
+        <v>91.015000000000001</v>
       </c>
       <c r="D167">
-        <v>89.564999999999998</v>
+        <v>91.564999999999998</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
@@ -5547,10 +5562,11 @@
         <v>296</v>
       </c>
       <c r="C168">
-        <v>89.564999999999998</v>
+        <f t="shared" si="0"/>
+        <v>91.564999999999998</v>
       </c>
       <c r="D168">
-        <v>89.614999999999995</v>
+        <v>91.614999999999995</v>
       </c>
       <c r="E168" t="s">
         <v>122</v>
@@ -5567,10 +5583,11 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>89.614999999999995</v>
+        <f t="shared" si="0"/>
+        <v>91.614999999999995</v>
       </c>
       <c r="D169">
-        <v>89.924999999999997</v>
+        <v>92.125</v>
       </c>
       <c r="E169" t="s">
         <v>298</v>
@@ -5587,10 +5604,11 @@
         <v>299</v>
       </c>
       <c r="C170">
-        <v>89.924999999999997</v>
+        <f t="shared" si="0"/>
+        <v>92.125</v>
       </c>
       <c r="D170">
-        <v>90.4</v>
+        <v>92.44</v>
       </c>
       <c r="E170" t="s">
         <v>156</v>
@@ -5607,10 +5625,11 @@
         <v>300</v>
       </c>
       <c r="C171">
-        <v>90.4</v>
+        <f t="shared" si="0"/>
+        <v>92.44</v>
       </c>
       <c r="D171">
-        <v>91</v>
+        <v>92.75</v>
       </c>
       <c r="E171" t="s">
         <v>98</v>
@@ -5626,11 +5645,12 @@
       <c r="B172" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C172" s="1">
-        <v>91</v>
+      <c r="C172">
+        <f t="shared" si="0"/>
+        <v>92.75</v>
       </c>
       <c r="D172" s="1">
-        <v>91.155000000000001</v>
+        <v>93.155000000000001</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>245</v>
@@ -5646,11 +5666,12 @@
       <c r="B173" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C173" s="1">
-        <v>91.155000000000001</v>
+      <c r="C173">
+        <f t="shared" si="0"/>
+        <v>93.155000000000001</v>
       </c>
       <c r="D173" s="1">
-        <v>91.155000000000001</v>
+        <v>93.155000000000001</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>303</v>
@@ -5666,11 +5687,12 @@
       <c r="B174" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C174" s="1">
-        <v>91.155000000000001</v>
+      <c r="C174">
+        <f t="shared" si="0"/>
+        <v>93.155000000000001</v>
       </c>
       <c r="D174" s="1">
-        <v>91.155000000000001</v>
+        <v>93.155000000000001</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>303</v>
@@ -5686,11 +5708,12 @@
       <c r="B175" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C175" s="1">
-        <v>91.155000000000001</v>
+      <c r="C175">
+        <f t="shared" si="0"/>
+        <v>93.155000000000001</v>
       </c>
       <c r="D175" s="1">
-        <v>91.155000000000001</v>
+        <v>93.155000000000001</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>303</v>
@@ -5709,11 +5732,12 @@
       <c r="B176" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C176" s="1">
-        <v>91.155000000000001</v>
+      <c r="C176">
+        <f t="shared" si="0"/>
+        <v>93.155000000000001</v>
       </c>
       <c r="D176" s="1">
-        <v>91.22</v>
+        <v>101.22</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>303</v>
@@ -5729,11 +5753,12 @@
       <c r="B177" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C177" s="1">
-        <v>91.22</v>
+      <c r="C177">
+        <f>D176</f>
+        <v>101.22</v>
       </c>
       <c r="D177" s="1">
-        <v>91.545000000000002</v>
+        <v>101.545</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>308</v>
@@ -5749,11 +5774,12 @@
       <c r="B178" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C178" s="1">
-        <v>91.545000000000002</v>
+      <c r="C178">
+        <f t="shared" si="0"/>
+        <v>101.545</v>
       </c>
       <c r="D178" s="1">
-        <v>92.834999999999994</v>
+        <v>102.83499999999999</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>310</v>
